--- a/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/2 WetGranulation_Formulation/WetGranDataSet_GhentU.xlsx
+++ b/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/2 WetGranulation_Formulation/WetGranDataSet_GhentU.xlsx
@@ -4012,13 +4012,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368683F3-946F-4D1A-AE1F-999E85F57DC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B65824-FEC3-4856-B136-48E170D0947B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57D53787-E09D-4277-B968-0FB303A4B936}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7DB92F-ED4D-46EA-80E0-81A365DEE0D6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10F55A4F-4A46-43B2-B1E2-DB71F7C6D216}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DAF486-45A3-4666-A4AF-177C2B2C8630}"/>
 </file>